--- a/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>SPYR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,105 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -767,16 +774,22 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,17 +823,23 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
-      <c r="O9" s="3">
-        <v>100</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,17 +873,23 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>-100</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
+        <v>200</v>
+      </c>
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
-        <v>100</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,16 +1002,22 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -995,26 +1034,32 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1052,13 +1097,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-5300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-6900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-5400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1295,23 +1374,29 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,43 +1404,49 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-5400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,43 +1554,49 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-6900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-5400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,43 +1604,49 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-6900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-5400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,13 +1689,19 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1607,19 +1728,25 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,52 +1839,64 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>5300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,43 +1904,49 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-6900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-5400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1989,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,92 +2004,104 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-6900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-5400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1988,31 +2161,37 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2050,13 +2229,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>100</v>
+      </c>
+      <c r="R42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,22 +2249,22 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2091,16 +2276,22 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2125,26 +2316,32 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2173,10 +2370,10 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2187,13 +2384,19 @@
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -2205,34 +2408,40 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,16 +2484,22 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -2293,10 +2508,10 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2308,19 +2523,25 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
         <v>200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>400</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>400</v>
+      </c>
+      <c r="R48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2337,34 +2558,40 @@
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="I49" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="J49" s="3">
         <v>700</v>
       </c>
       <c r="K49" s="3">
+        <v>700</v>
+      </c>
+      <c r="L49" s="3">
+        <v>700</v>
+      </c>
+      <c r="M49" s="3">
         <v>800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>300</v>
       </c>
-      <c r="N49" s="3">
-        <v>100</v>
-      </c>
-      <c r="O49" s="3">
-        <v>100</v>
-      </c>
       <c r="P49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+      <c r="R49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2490,13 +2729,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,13 +2784,19 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
         <v>400</v>
@@ -2554,13 +2805,13 @@
         <v>400</v>
       </c>
       <c r="G54" s="3">
+        <v>400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>400</v>
+      </c>
+      <c r="I54" s="3">
         <v>500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1100</v>
       </c>
       <c r="J54" s="3">
         <v>1000</v>
@@ -2569,22 +2820,28 @@
         <v>1100</v>
       </c>
       <c r="L54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>600</v>
       </c>
       <c r="J57" s="3">
         <v>900</v>
       </c>
       <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
+        <v>900</v>
+      </c>
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,26 +2942,26 @@
         <v>1700</v>
       </c>
       <c r="F58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,87 +2989,99 @@
         <v>1200</v>
       </c>
       <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F60" s="3">
         <v>4100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2200</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2822,14 +3107,14 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2839,37 +3124,43 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F66" s="3">
         <v>4100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2200</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-57200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-56900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-56400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-56000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-54800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-53900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-51200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-48800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-40000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-36800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-34500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-33100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3894,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,43 +3964,49 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-6900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-5400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3667,13 +4064,19 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,37 +4393,39 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -3992,14 +4433,20 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4116,22 +4575,28 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4430,30 +4933,36 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>SPYR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>200</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -780,16 +784,19 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,8 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>100</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -838,8 +845,11 @@
       <c r="R9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -879,17 +889,20 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>-100</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
-        <v>100</v>
-      </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
-        <v>100</v>
-      </c>
       <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,20 +1025,23 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1040,11 +1060,11 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1052,14 +1072,17 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>2500</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1103,13 +1126,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
       </c>
       <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-100</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-5300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1380,73 +1420,79 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-500</v>
       </c>
       <c r="H23" s="3">
         <v>-500</v>
       </c>
       <c r="I23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-500</v>
       </c>
       <c r="H26" s="3">
         <v>-500</v>
       </c>
       <c r="I26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-500</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
       </c>
       <c r="I27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,16 +1753,19 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1734,19 +1795,22 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>100</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>5300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-500</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
       </c>
       <c r="I33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-500</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
       </c>
       <c r="I35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2167,31 +2254,34 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2235,13 +2325,16 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>100</v>
+      </c>
+      <c r="S42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2249,10 +2342,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2261,13 +2354,13 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2282,16 +2375,19 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2322,8 +2418,8 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -2331,8 +2427,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2376,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2399,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -2414,34 +2516,37 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2502,7 +2610,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2514,7 +2622,7 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2529,19 +2637,22 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
       </c>
       <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
         <v>400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2564,7 +2675,7 @@
         <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
         <v>700</v>
@@ -2573,25 +2684,28 @@
         <v>700</v>
       </c>
       <c r="M49" s="3">
+        <v>700</v>
+      </c>
+      <c r="N49" s="3">
         <v>800</v>
-      </c>
-      <c r="N49" s="3">
-        <v>300</v>
       </c>
       <c r="O49" s="3">
         <v>300</v>
       </c>
       <c r="P49" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
       </c>
       <c r="R49" s="3">
+        <v>100</v>
+      </c>
+      <c r="S49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2735,13 +2855,16 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,16 +2913,19 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
-      </c>
-      <c r="E54" s="3">
-        <v>400</v>
       </c>
       <c r="F54" s="3">
         <v>400</v>
@@ -2811,37 +2937,40 @@
         <v>400</v>
       </c>
       <c r="I54" s="3">
+        <v>400</v>
+      </c>
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,63 +3010,67 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1200</v>
       </c>
       <c r="G57" s="3">
         <v>1200</v>
       </c>
       <c r="H57" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I57" s="3">
         <v>1100</v>
       </c>
       <c r="J57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E58" s="3">
         <v>1700</v>
@@ -2948,23 +3082,23 @@
         <v>1700</v>
       </c>
       <c r="H58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2995,93 +3132,99 @@
         <v>1200</v>
       </c>
       <c r="G59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3113,11 +3256,11 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3130,22 +3273,25 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -3153,8 +3299,8 @@
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3162,8 +3308,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-58100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-57900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-57200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-56900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-56400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-56000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-54800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-51200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-48800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-40000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-33100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-500</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
       </c>
       <c r="I81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4070,13 +4269,16 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-800</v>
       </c>
       <c r="M89" s="3">
         <v>-800</v>
       </c>
       <c r="N89" s="3">
-        <v>-1200</v>
+        <v>-800</v>
       </c>
       <c r="O89" s="3">
         <v>-1200</v>
       </c>
       <c r="P89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -4421,14 +4642,14 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -4439,14 +4660,17 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4581,22 +4811,25 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>300</v>
       </c>
       <c r="H100" s="3">
+        <v>300</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>800</v>
       </c>
       <c r="M100" s="3">
+        <v>800</v>
+      </c>
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4939,30 +5191,33 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-1000</v>
       </c>
       <c r="O102" s="3">
         <v>-1000</v>
       </c>
       <c r="P102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>SPYR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,28 +755,28 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -787,16 +791,19 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,8 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>100</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -848,8 +855,11 @@
       <c r="S9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -892,17 +902,20 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -933,50 +947,53 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>-100</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3">
-        <v>100</v>
-      </c>
       <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>1200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,23 +1045,26 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1063,11 +1083,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>2500</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1129,13 +1152,16 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-400</v>
       </c>
       <c r="I18" s="3">
         <v>-400</v>
       </c>
       <c r="J18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1294,46 +1328,49 @@
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-5300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1423,23 +1463,26 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,52 +1490,55 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-500</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
       </c>
       <c r="J23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,52 +1658,55 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
       </c>
       <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,52 +1714,55 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-500</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
       </c>
       <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1767,8 +1828,8 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1798,19 +1859,22 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1930,46 +2000,49 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>5300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,52 +2050,55 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
       </c>
       <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,110 +2162,116 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
       </c>
       <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2257,31 +2344,34 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2328,13 +2418,16 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>100</v>
+      </c>
+      <c r="T42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2345,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2357,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2378,16 +2471,19 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2421,8 +2517,8 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -2430,8 +2526,8 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2478,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2504,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -2519,34 +2621,37 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2613,7 +2721,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -2625,7 +2733,7 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2640,19 +2748,22 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
       </c>
       <c r="R48" s="3">
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
         <v>400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2678,7 +2789,7 @@
         <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
         <v>700</v>
@@ -2687,25 +2798,28 @@
         <v>700</v>
       </c>
       <c r="N49" s="3">
+        <v>700</v>
+      </c>
+      <c r="O49" s="3">
         <v>800</v>
-      </c>
-      <c r="O49" s="3">
-        <v>300</v>
       </c>
       <c r="P49" s="3">
         <v>300</v>
       </c>
       <c r="Q49" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R49" s="3">
         <v>100</v>
       </c>
       <c r="S49" s="3">
+        <v>100</v>
+      </c>
+      <c r="T49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2858,13 +2978,16 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,10 +3051,10 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
@@ -2940,37 +3066,40 @@
         <v>400</v>
       </c>
       <c r="J54" s="3">
+        <v>400</v>
+      </c>
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,69 +3141,73 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1200</v>
       </c>
       <c r="H57" s="3">
         <v>1200</v>
       </c>
       <c r="I57" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J57" s="3">
         <v>1100</v>
       </c>
       <c r="K57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1700</v>
       </c>
       <c r="F58" s="3">
         <v>1700</v>
@@ -3085,23 +3219,23 @@
         <v>1700</v>
       </c>
       <c r="I58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3117,13 +3251,16 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E59" s="3">
         <v>1200</v>
@@ -3135,96 +3272,102 @@
         <v>1200</v>
       </c>
       <c r="H59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>2000</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3259,11 +3402,11 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3276,25 +3419,28 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>100</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -3302,8 +3448,8 @@
       <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>100</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E66" s="3">
         <v>5100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-58800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-58500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-58100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-57900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-57200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-56900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-56400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-56000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-54800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-53900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-51200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-48800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-40000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-34500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-33100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,52 +4354,55 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>
       </c>
       <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4272,13 +4471,16 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-800</v>
       </c>
       <c r="N89" s="3">
         <v>-800</v>
       </c>
       <c r="O89" s="3">
-        <v>-1200</v>
+        <v>-800</v>
       </c>
       <c r="P89" s="3">
         <v>-1200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,8 +4848,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -4645,14 +4866,14 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -4663,14 +4884,17 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4814,22 +5044,25 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>300</v>
       </c>
       <c r="I100" s="3">
+        <v>300</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>800</v>
       </c>
       <c r="N100" s="3">
+        <v>800</v>
+      </c>
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5194,30 +5446,33 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-1000</v>
       </c>
       <c r="P102" s="3">
         <v>-1000</v>
       </c>
       <c r="Q102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>SPYR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,35 +762,35 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
+        <v>300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -794,16 +801,22 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,17 +862,23 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>100</v>
-      </c>
-      <c r="S9" s="3">
-        <v>100</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,17 +924,23 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +961,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
         <v>-100</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
       </c>
       <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
+        <v>200</v>
+      </c>
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
-        <v>100</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
         <v>1200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,18 +1098,18 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1086,31 +1125,37 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>2500</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1155,13 +1200,19 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T15" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>100</v>
+      </c>
+      <c r="V15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1230,72 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
-        <v>900</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-2300</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>-700</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-3400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-5400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,7 +1389,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
@@ -1331,7 +1398,7 @@
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>-200</v>
@@ -1340,37 +1407,43 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-5300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1451,61 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>-200</v>
-      </c>
       <c r="G21" s="3">
-        <v>-700</v>
+        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-6900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-3400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-5400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1466,79 +1545,91 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-700</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-6900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-5400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-700</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-6900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-5400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-700</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-6900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-5400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,28 +1932,34 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
+      <c r="E29" s="3">
+        <v>-100</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1862,19 +1983,25 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,7 +2133,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
@@ -2003,7 +2142,7 @@
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>200</v>
@@ -2012,93 +2151,105 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>200</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>5300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-700</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-6900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-5400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-700</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-6900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-5400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,16 +2485,18 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2347,31 +2520,37 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2421,13 +2600,19 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>100</v>
+      </c>
+      <c r="V42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2441,28 +2626,28 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2474,39 +2659,45 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2520,34 +2711,40 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2580,10 +2777,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2594,25 +2791,31 @@
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -2624,34 +2827,40 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,13 +2915,19 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2724,10 +2939,10 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -2736,10 +2951,10 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -2751,19 +2966,25 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
         <v>200</v>
-      </c>
-      <c r="R48" s="3">
-        <v>200</v>
-      </c>
-      <c r="S48" s="3">
-        <v>400</v>
       </c>
       <c r="T48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>400</v>
+      </c>
+      <c r="V48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2792,34 +3013,40 @@
         <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>700</v>
       </c>
       <c r="O49" s="3">
+        <v>700</v>
+      </c>
+      <c r="P49" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q49" s="3">
         <v>800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>300</v>
       </c>
-      <c r="R49" s="3">
-        <v>100</v>
-      </c>
-      <c r="S49" s="3">
-        <v>100</v>
-      </c>
       <c r="T49" s="3">
+        <v>100</v>
+      </c>
+      <c r="U49" s="3">
+        <v>100</v>
+      </c>
+      <c r="V49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2981,13 +3220,19 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,25 +3287,31 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>400</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
@@ -3069,13 +3320,13 @@
         <v>400</v>
       </c>
       <c r="K54" s="3">
+        <v>400</v>
+      </c>
+      <c r="L54" s="3">
+        <v>400</v>
+      </c>
+      <c r="M54" s="3">
         <v>500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1100</v>
       </c>
       <c r="N54" s="3">
         <v>1000</v>
@@ -3084,22 +3335,28 @@
         <v>1100</v>
       </c>
       <c r="P54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,78 +3401,86 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>900</v>
       </c>
       <c r="O57" s="3">
+        <v>600</v>
+      </c>
+      <c r="P57" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1700</v>
       </c>
       <c r="H58" s="3">
         <v>1700</v>
@@ -3222,26 +3489,26 @@
         <v>1700</v>
       </c>
       <c r="J58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3254,19 +3521,25 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1200</v>
       </c>
       <c r="G59" s="3">
         <v>1200</v>
@@ -3275,107 +3548,119 @@
         <v>1200</v>
       </c>
       <c r="I59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>2000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2200</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3405,14 +3690,14 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3422,49 +3707,55 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>1500</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
+        <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F66" s="3">
         <v>5200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>200</v>
-      </c>
-      <c r="S66" s="3">
-        <v>2200</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-58800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-58500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-58100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-57900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-57200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-56900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-56400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-56000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-54800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-53900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-51200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-48800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-36800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-34500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-33100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-700</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-6900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-5400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4444,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -4474,13 +4871,19 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-300</v>
+        <v>-800</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5276,15 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4851,11 +5292,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -4869,17 +5310,17 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -4887,14 +5328,20 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,13 +5458,19 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5047,22 +5506,28 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>700</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,16 +5916,22 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -5449,30 +5952,36 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>SPYR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,41 +770,41 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -807,24 +815,30 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -868,25 +882,31 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
-        <v>100</v>
-      </c>
-      <c r="U9" s="3">
-        <v>100</v>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -930,17 +950,23 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,11 +1002,11 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -986,47 +1014,53 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
         <v>-100</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>200</v>
       </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>200</v>
       </c>
-      <c r="T12" s="3">
-        <v>100</v>
-      </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+      <c r="W12" s="3">
         <v>1200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,13 +1121,19 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1104,18 +1144,18 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1131,31 +1171,37 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>2500</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1206,13 +1252,19 @@
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V15" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>100</v>
+      </c>
+      <c r="X15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1284,78 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1800</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>5500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-3400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-5400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,22 +1457,22 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>-200</v>
@@ -1413,37 +1481,43 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-5300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1525,67 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1700</v>
       </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-6900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-3100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-3400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-5400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1551,85 +1631,97 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-1100</v>
       </c>
       <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1700</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-6900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-3400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-5400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-1100</v>
       </c>
       <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1700</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-6900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-3400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-5400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-1100</v>
       </c>
       <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1700</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-6900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-3400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-5400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,35 +2054,41 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>-100</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1989,19 +2111,25 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,22 +2273,22 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>200</v>
@@ -2157,99 +2297,111 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>5300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-1100</v>
       </c>
       <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-2000</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-6900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-3500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-5400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-1100</v>
       </c>
       <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-2000</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-6900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-3500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-5400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,23 +2659,25 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2526,31 +2700,37 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2606,13 +2786,19 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>100</v>
+      </c>
+      <c r="X42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2632,28 +2818,28 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2665,27 +2851,33 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
@@ -2699,11 +2891,11 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2717,26 +2909,32 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2747,10 +2945,10 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2783,10 +2981,10 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2797,31 +2995,37 @@
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -2833,34 +3037,40 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3131,14 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,10 +3146,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -2945,10 +3161,10 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -2957,10 +3173,10 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2972,27 +3188,33 @@
         <v>100</v>
       </c>
       <c r="S48" s="3">
+        <v>100</v>
+      </c>
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3">
         <v>200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>200</v>
-      </c>
-      <c r="U48" s="3">
-        <v>400</v>
       </c>
       <c r="V48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>400</v>
+      </c>
+      <c r="X48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -3019,34 +3241,40 @@
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="P49" s="3">
         <v>700</v>
       </c>
       <c r="Q49" s="3">
+        <v>700</v>
+      </c>
+      <c r="R49" s="3">
+        <v>700</v>
+      </c>
+      <c r="S49" s="3">
         <v>800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>300</v>
       </c>
-      <c r="T49" s="3">
-        <v>100</v>
-      </c>
-      <c r="U49" s="3">
-        <v>100</v>
-      </c>
       <c r="V49" s="3">
+        <v>100</v>
+      </c>
+      <c r="W49" s="3">
+        <v>100</v>
+      </c>
+      <c r="X49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3226,13 +3466,19 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+      <c r="X52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,31 +3539,37 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>400</v>
@@ -3326,13 +3578,13 @@
         <v>400</v>
       </c>
       <c r="M54" s="3">
+        <v>400</v>
+      </c>
+      <c r="N54" s="3">
+        <v>400</v>
+      </c>
+      <c r="O54" s="3">
         <v>500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1100</v>
       </c>
       <c r="P54" s="3">
         <v>1000</v>
@@ -3341,22 +3593,28 @@
         <v>1100</v>
       </c>
       <c r="R54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T54" s="3">
         <v>800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,90 +3663,98 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>900</v>
-      </c>
-      <c r="O57" s="3">
-        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>900</v>
       </c>
       <c r="Q57" s="3">
+        <v>600</v>
+      </c>
+      <c r="R57" s="3">
+        <v>900</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>200</v>
-      </c>
-      <c r="U57" s="3">
-        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1700</v>
       </c>
       <c r="J58" s="3">
         <v>1700</v>
@@ -3495,26 +3763,26 @@
         <v>1700</v>
       </c>
       <c r="L58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3527,25 +3795,31 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1200</v>
       </c>
       <c r="I59" s="3">
         <v>1200</v>
@@ -3554,119 +3828,131 @@
         <v>1200</v>
       </c>
       <c r="K59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>2000</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F60" s="3">
         <v>5000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
-      </c>
-      <c r="T60" s="3">
-        <v>200</v>
-      </c>
-      <c r="U60" s="3">
-        <v>2200</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
-        <v>100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3696,14 +3982,14 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3713,55 +3999,61 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
+        <v>100</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G66" s="3">
         <v>6300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>200</v>
-      </c>
-      <c r="U66" s="3">
-        <v>2200</v>
       </c>
       <c r="V66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-64100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-62200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-61000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-58800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-58500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-58100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-57900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-57200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-56900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-56400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-56000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-54800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-53900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-51200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-48800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-40000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-36800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-34500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-33100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-6200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-5600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-1100</v>
       </c>
       <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-2000</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-6900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-3500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-5400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4841,13 +5239,13 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4877,13 +5275,19 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,19 +5718,21 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5298,11 +5740,11 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -5316,17 +5758,17 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
@@ -5334,14 +5776,20 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,13 +5918,19 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5512,22 +5972,28 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,23 +6420,29 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -5958,30 +6462,36 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>SPYR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,37 +779,37 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -821,27 +824,30 @@
         <v>0</v>
       </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
         <v>100</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -888,8 +894,8 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
-        <v>100</v>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
@@ -897,19 +903,22 @@
       <c r="X9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -956,17 +965,20 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
       </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,16 +1003,17 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1008,8 +1021,8 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
@@ -1020,47 +1033,50 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
         <v>-100</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
-        <v>100</v>
-      </c>
       <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>200</v>
       </c>
-      <c r="V12" s="3">
-        <v>100</v>
-      </c>
       <c r="W12" s="3">
+        <v>100</v>
+      </c>
+      <c r="X12" s="3">
         <v>1200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,17 +1143,20 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1154,11 +1173,11 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1177,11 +1196,11 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1189,14 +1208,17 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
         <v>2500</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1258,13 +1280,16 @@
         <v>0</v>
       </c>
       <c r="W15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1311,80 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-100</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>500</v>
       </c>
       <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1392,70 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-400</v>
       </c>
       <c r="N18" s="3">
         <v>-400</v>
       </c>
       <c r="O18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-5400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,67 +1490,70 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-5300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,67 +1561,70 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2900</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-5400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1637,91 +1676,97 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
       <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-500</v>
       </c>
       <c r="N23" s="3">
         <v>-500</v>
       </c>
       <c r="O23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-300</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-500</v>
       </c>
       <c r="N26" s="3">
         <v>-500</v>
       </c>
       <c r="O26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-300</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-500</v>
       </c>
       <c r="N27" s="3">
         <v>-500</v>
       </c>
       <c r="O27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2069,29 +2129,29 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-100</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -2117,19 +2177,22 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,135 +2342,141 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>5300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-300</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-500</v>
       </c>
       <c r="N33" s="3">
         <v>-500</v>
       </c>
       <c r="O33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-300</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-500</v>
       </c>
       <c r="N35" s="3">
         <v>-500</v>
       </c>
       <c r="O35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2673,14 +2759,14 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2706,31 +2792,34 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2792,13 +2881,16 @@
         <v>0</v>
       </c>
       <c r="W42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X42" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2824,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2836,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2857,30 +2949,33 @@
         <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -2897,8 +2992,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2915,8 +3010,8 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
+      <c r="S44" s="3">
+        <v>0</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>4</v>
@@ -2924,8 +3019,8 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2951,7 +3049,7 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2987,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -3001,26 +3099,29 @@
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -3028,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
@@ -3043,34 +3144,37 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3152,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -3167,7 +3274,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -3179,7 +3286,7 @@
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -3194,19 +3301,22 @@
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
         <v>200</v>
       </c>
       <c r="W48" s="3">
+        <v>200</v>
+      </c>
+      <c r="X48" s="3">
         <v>400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3217,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -3247,7 +3357,7 @@
         <v>100</v>
       </c>
       <c r="P49" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="Q49" s="3">
         <v>700</v>
@@ -3256,25 +3366,28 @@
         <v>700</v>
       </c>
       <c r="S49" s="3">
+        <v>700</v>
+      </c>
+      <c r="T49" s="3">
         <v>800</v>
-      </c>
-      <c r="T49" s="3">
-        <v>300</v>
       </c>
       <c r="U49" s="3">
         <v>300</v>
       </c>
       <c r="V49" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W49" s="3">
         <v>100</v>
       </c>
       <c r="X49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3472,13 +3591,16 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3557,22 +3682,22 @@
         <v>200</v>
       </c>
       <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
       </c>
       <c r="J54" s="3">
+        <v>200</v>
+      </c>
+      <c r="K54" s="3">
         <v>300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>400</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
@@ -3584,37 +3709,40 @@
         <v>400</v>
       </c>
       <c r="O54" s="3">
+        <v>400</v>
+      </c>
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1200</v>
       </c>
       <c r="M57" s="3">
         <v>1200</v>
       </c>
       <c r="N57" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="O57" s="3">
         <v>1100</v>
       </c>
       <c r="P57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,22 +3875,22 @@
         <v>800</v>
       </c>
       <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1300</v>
       </c>
       <c r="G58" s="3">
         <v>1300</v>
       </c>
       <c r="H58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1700</v>
       </c>
       <c r="K58" s="3">
         <v>1700</v>
@@ -3769,23 +3902,23 @@
         <v>1700</v>
       </c>
       <c r="N58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3813,16 +3949,16 @@
         <v>800</v>
       </c>
       <c r="F59" s="3">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G59" s="3">
         <v>2000</v>
       </c>
       <c r="H59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I59" s="3">
         <v>1300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1200</v>
       </c>
       <c r="J59" s="3">
         <v>1200</v>
@@ -3834,128 +3970,134 @@
         <v>1200</v>
       </c>
       <c r="M59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>2000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3">
         <v>2000</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E61" s="3">
         <v>2500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
-        <v>100</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3988,11 +4130,11 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4005,40 +4147,43 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -4046,8 +4191,8 @@
       <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>100</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -4055,8 +4200,8 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>6700</v>
       </c>
       <c r="F66" s="3">
         <v>6700</v>
       </c>
       <c r="G66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H66" s="3">
         <v>6300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-64100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-63100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-61000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-58800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-58500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-58100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-57900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-57200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-56900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-56400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-56000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-54800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-53900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-51200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-48800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-40000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-36800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-34500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-33100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-7300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-300</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-500</v>
       </c>
       <c r="N81" s="3">
         <v>-500</v>
       </c>
       <c r="O81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5245,10 +5443,10 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5281,13 +5479,16 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-800</v>
       </c>
       <c r="S89" s="3">
         <v>-800</v>
       </c>
       <c r="T89" s="3">
-        <v>-1200</v>
+        <v>-800</v>
       </c>
       <c r="U89" s="3">
         <v>-1200</v>
       </c>
       <c r="V89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,8 +5954,8 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5746,8 +5966,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -5764,14 +5984,14 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -5782,14 +6002,17 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5978,22 +6207,25 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>700</v>
-      </c>
-      <c r="L100" s="3">
-        <v>300</v>
       </c>
       <c r="M100" s="3">
         <v>300</v>
       </c>
       <c r="N100" s="3">
+        <v>300</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>800</v>
       </c>
       <c r="S100" s="3">
+        <v>800</v>
+      </c>
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
+      <c r="W100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6435,17 +6686,17 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -6468,30 +6719,33 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-1000</v>
       </c>
       <c r="U102" s="3">
         <v>-1000</v>
       </c>
       <c r="V102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W102" s="3">
         <v>-900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>SPYR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,37 +786,37 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -827,30 +831,33 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
       <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -897,8 +904,8 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="3">
-        <v>100</v>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X9" s="3">
         <v>100</v>
@@ -906,22 +913,25 @@
       <c r="Y9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -968,17 +978,20 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1015,8 +1029,8 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -1024,8 +1038,8 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
@@ -1036,47 +1050,50 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
         <v>-100</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3">
-        <v>100</v>
-      </c>
       <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>200</v>
       </c>
-      <c r="W12" s="3">
-        <v>100</v>
-      </c>
       <c r="X12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3">
         <v>1200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,20 +1163,23 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>-600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1176,11 +1196,11 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1199,11 +1219,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
@@ -1211,14 +1231,17 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
         <v>2500</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1283,13 +1306,16 @@
         <v>0</v>
       </c>
       <c r="X15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,79 +1338,83 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
       </c>
       <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,70 +1422,73 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
       </c>
       <c r="O18" s="3">
         <v>-400</v>
       </c>
       <c r="P18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,70 +1524,73 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-5300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,70 +1598,73 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2900</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-300</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-6900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1679,94 +1719,100 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
       </c>
       <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-500</v>
       </c>
       <c r="O23" s="3">
         <v>-500</v>
       </c>
       <c r="P23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
       </c>
       <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-500</v>
       </c>
       <c r="O26" s="3">
         <v>-500</v>
       </c>
       <c r="P26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
       </c>
       <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-500</v>
       </c>
       <c r="O27" s="3">
         <v>-500</v>
       </c>
       <c r="P27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2132,29 +2193,29 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-100</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -2180,19 +2241,22 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-100</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,141 +2412,147 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>5300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
       </c>
       <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-500</v>
       </c>
       <c r="O33" s="3">
         <v>-500</v>
       </c>
       <c r="P33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
       </c>
       <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-500</v>
       </c>
       <c r="O35" s="3">
         <v>-500</v>
       </c>
       <c r="P35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,13 +2833,14 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2762,14 +2849,14 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2795,31 +2882,34 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2884,18 +2974,21 @@
         <v>0</v>
       </c>
       <c r="X42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2919,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2931,13 +3024,13 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2952,33 +3045,36 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2995,8 +3091,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -3013,8 +3109,8 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
+      <c r="T44" s="3">
+        <v>0</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
@@ -3022,8 +3118,8 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
+      <c r="W44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3052,7 +3151,7 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3088,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -3102,29 +3201,32 @@
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -3132,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
@@ -3147,34 +3249,37 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3262,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -3277,7 +3385,7 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
@@ -3289,7 +3397,7 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3304,24 +3412,27 @@
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W48" s="3">
         <v>200</v>
       </c>
       <c r="X48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y48" s="3">
         <v>400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -3330,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -3360,7 +3471,7 @@
         <v>100</v>
       </c>
       <c r="Q49" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="R49" s="3">
         <v>700</v>
@@ -3369,25 +3480,28 @@
         <v>700</v>
       </c>
       <c r="T49" s="3">
+        <v>700</v>
+      </c>
+      <c r="U49" s="3">
         <v>800</v>
-      </c>
-      <c r="U49" s="3">
-        <v>300</v>
       </c>
       <c r="V49" s="3">
         <v>300</v>
       </c>
       <c r="W49" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="X49" s="3">
         <v>100</v>
       </c>
       <c r="Y49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,13 +3645,16 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3594,13 +3714,16 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,13 +3793,16 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
@@ -3685,22 +3811,22 @@
         <v>200</v>
       </c>
       <c r="G54" s="3">
+        <v>200</v>
+      </c>
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
       </c>
       <c r="K54" s="3">
+        <v>200</v>
+      </c>
+      <c r="L54" s="3">
         <v>300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>400</v>
       </c>
       <c r="M54" s="3">
         <v>400</v>
@@ -3712,37 +3838,40 @@
         <v>400</v>
       </c>
       <c r="P54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1200</v>
       </c>
       <c r="N57" s="3">
         <v>1200</v>
       </c>
       <c r="O57" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="P57" s="3">
         <v>1100</v>
       </c>
       <c r="Q57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
-      </c>
-      <c r="V57" s="3">
-        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3878,22 +4012,22 @@
         <v>800</v>
       </c>
       <c r="F58" s="3">
+        <v>800</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1300</v>
       </c>
       <c r="H58" s="3">
         <v>1300</v>
       </c>
       <c r="I58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1700</v>
       </c>
       <c r="L58" s="3">
         <v>1700</v>
@@ -3905,23 +4039,23 @@
         <v>1700</v>
       </c>
       <c r="O58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P58" s="3">
         <v>1600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3937,8 +4071,11 @@
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3952,16 +4089,16 @@
         <v>800</v>
       </c>
       <c r="G59" s="3">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="H59" s="3">
         <v>2000</v>
       </c>
       <c r="I59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J59" s="3">
         <v>1300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1200</v>
       </c>
       <c r="K59" s="3">
         <v>1200</v>
@@ -3973,134 +4110,140 @@
         <v>1200</v>
       </c>
       <c r="N59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2100</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>2000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
         <v>2000</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="E61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F61" s="3">
         <v>2500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
-        <v>100</v>
-      </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4133,11 +4276,11 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>800</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4150,43 +4293,46 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2600</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -4194,8 +4340,8 @@
       <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>100</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -4203,8 +4349,8 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E66" s="3">
         <v>8900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>6700</v>
       </c>
       <c r="G66" s="3">
         <v>6700</v>
       </c>
       <c r="H66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I66" s="3">
         <v>6300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-66500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-64100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-63100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-62200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-61000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-58800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-58500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-58100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-57900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-57200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-56900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-56400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-54800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-53900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-51200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-48800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-40000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-36800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-34500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-33100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-7300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
       </c>
       <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-500</v>
       </c>
       <c r="O81" s="3">
         <v>-500</v>
       </c>
       <c r="P81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5446,10 +5645,10 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5482,13 +5681,16 @@
         <v>0</v>
       </c>
       <c r="X83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-800</v>
       </c>
       <c r="T89" s="3">
         <v>-800</v>
       </c>
       <c r="U89" s="3">
-        <v>-1200</v>
+        <v>-800</v>
       </c>
       <c r="V89" s="3">
         <v>-1200</v>
       </c>
       <c r="W89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5957,8 +6178,8 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5969,8 +6190,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5987,14 +6208,14 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
@@ -6005,14 +6226,17 @@
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6210,22 +6440,25 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>700</v>
-      </c>
-      <c r="M100" s="3">
-        <v>300</v>
       </c>
       <c r="N100" s="3">
         <v>300</v>
       </c>
       <c r="O100" s="3">
+        <v>300</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>800</v>
       </c>
       <c r="T100" s="3">
+        <v>800</v>
+      </c>
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
+      <c r="X100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,29 +6926,32 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -6722,30 +6974,33 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-1000</v>
       </c>
       <c r="V102" s="3">
         <v>-1000</v>
       </c>
       <c r="W102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X102" s="3">
         <v>-900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>SPYR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,37 +793,37 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -834,33 +838,36 @@
         <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="3">
         <v>100</v>
       </c>
       <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -907,8 +914,8 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="3">
-        <v>100</v>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y9" s="3">
         <v>100</v>
@@ -916,25 +923,28 @@
       <c r="Z9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -981,17 +991,20 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y10" s="3">
         <v>0</v>
       </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,13 +1031,14 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -1032,8 +1046,8 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1041,8 +1055,8 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -1053,47 +1067,50 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
         <v>-100</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
-        <v>100</v>
-      </c>
       <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>200</v>
       </c>
-      <c r="X12" s="3">
-        <v>100</v>
-      </c>
       <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z12" s="3">
         <v>1200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,23 +1183,26 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
       </c>
       <c r="F14" s="3">
+        <v>800</v>
+      </c>
+      <c r="G14" s="3">
         <v>-600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1199,11 +1219,11 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1222,11 +1242,11 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
@@ -1234,19 +1254,22 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
         <v>2500</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1309,13 +1332,16 @@
         <v>0</v>
       </c>
       <c r="Y15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,82 +1365,86 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
-        <v>600</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>500</v>
       </c>
       <c r="Q17" s="3">
         <v>500</v>
       </c>
       <c r="R17" s="3">
+        <v>500</v>
+      </c>
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,73 +1452,76 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-600</v>
+        <v>-1400</v>
       </c>
       <c r="F18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
       </c>
       <c r="Q18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,73 +1558,76 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-1500</v>
+        <v>-800</v>
       </c>
       <c r="F20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-5300</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,73 +1635,76 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-300</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-6900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1722,97 +1762,103 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-500</v>
+        <v>-1400</v>
       </c>
       <c r="E23" s="3">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="F23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-500</v>
       </c>
       <c r="P23" s="3">
         <v>-500</v>
       </c>
       <c r="Q23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-500</v>
+        <v>-1400</v>
       </c>
       <c r="E26" s="3">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="F26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-500</v>
       </c>
       <c r="P26" s="3">
         <v>-500</v>
       </c>
       <c r="Q26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-500</v>
+        <v>-1400</v>
       </c>
       <c r="E27" s="3">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="F27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-500</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
       </c>
       <c r="Q27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2196,29 +2257,29 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-100</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -2244,19 +2305,22 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-100</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,147 +2482,153 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
-        <v>100</v>
-      </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>5300</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-500</v>
+        <v>-1400</v>
       </c>
       <c r="E33" s="3">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="F33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-500</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
       </c>
       <c r="Q33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-500</v>
+        <v>-1400</v>
       </c>
       <c r="E35" s="3">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="F35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-500</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
       </c>
       <c r="Q35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,17 +2920,18 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2852,14 +2939,14 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2885,39 +2972,42 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2977,21 +3067,24 @@
         <v>0</v>
       </c>
       <c r="Y42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -3015,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -3027,13 +3120,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -3048,36 +3141,39 @@
         <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>100</v>
+      <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -3094,8 +3190,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3112,8 +3208,8 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
+      <c r="U44" s="3">
+        <v>0</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>4</v>
@@ -3121,8 +3217,8 @@
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
+      <c r="X44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
@@ -3130,16 +3226,19 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -3154,7 +3253,7 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3190,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3204,32 +3303,35 @@
       <c r="Z45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
+        <v>200</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -3237,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
@@ -3252,34 +3354,37 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3373,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -3388,7 +3496,7 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
@@ -3400,7 +3508,7 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -3415,27 +3523,30 @@
         <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X48" s="3">
         <v>200</v>
       </c>
       <c r="Y48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z48" s="3">
         <v>400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="D49" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -3444,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -3474,7 +3585,7 @@
         <v>100</v>
       </c>
       <c r="R49" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="S49" s="3">
         <v>700</v>
@@ -3483,25 +3594,28 @@
         <v>700</v>
       </c>
       <c r="U49" s="3">
+        <v>700</v>
+      </c>
+      <c r="V49" s="3">
         <v>800</v>
-      </c>
-      <c r="V49" s="3">
-        <v>300</v>
       </c>
       <c r="W49" s="3">
         <v>300</v>
       </c>
       <c r="X49" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y49" s="3">
         <v>100</v>
       </c>
       <c r="Z49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,13 +3765,16 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3717,13 +3837,16 @@
         <v>0</v>
       </c>
       <c r="Y52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,40 +3919,43 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>9700</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
       </c>
       <c r="H54" s="3">
+        <v>200</v>
+      </c>
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
       </c>
       <c r="L54" s="3">
+        <v>200</v>
+      </c>
+      <c r="M54" s="3">
         <v>300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>400</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
@@ -3841,37 +3967,40 @@
         <v>400</v>
       </c>
       <c r="Q54" s="3">
+        <v>400</v>
+      </c>
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,111 +4056,115 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1200</v>
       </c>
       <c r="O57" s="3">
         <v>1200</v>
       </c>
       <c r="P57" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="Q57" s="3">
         <v>1100</v>
       </c>
       <c r="R57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
-      </c>
-      <c r="W57" s="3">
-        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
         <v>800</v>
       </c>
       <c r="G58" s="3">
+        <v>800</v>
+      </c>
+      <c r="H58" s="3">
         <v>700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1300</v>
       </c>
       <c r="I58" s="3">
         <v>1300</v>
       </c>
       <c r="J58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1700</v>
       </c>
       <c r="M58" s="3">
         <v>1700</v>
@@ -4042,23 +4176,23 @@
         <v>1700</v>
       </c>
       <c r="P58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4074,8 +4208,11 @@
       <c r="Z58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4092,16 +4229,16 @@
         <v>800</v>
       </c>
       <c r="H59" s="3">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="I59" s="3">
         <v>2000</v>
       </c>
       <c r="J59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1200</v>
       </c>
       <c r="L59" s="3">
         <v>1200</v>
@@ -4113,140 +4250,146 @@
         <v>1200</v>
       </c>
       <c r="O59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2100</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>2000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="3">
         <v>2000</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3400</v>
+        <v>11600</v>
       </c>
       <c r="E61" s="3">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="F61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G61" s="3">
         <v>2500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
-        <v>100</v>
-      </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4279,11 +4422,11 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>800</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4296,46 +4439,49 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="E62" s="3">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="F62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -4343,8 +4489,8 @@
       <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>100</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -4352,8 +4498,8 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7300</v>
+        <v>17600</v>
       </c>
       <c r="E66" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="F66" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G66" s="3">
         <v>7500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>6700</v>
       </c>
       <c r="H66" s="3">
         <v>6700</v>
       </c>
       <c r="I66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-67000</v>
+        <v>-70500</v>
       </c>
       <c r="E72" s="3">
-        <v>-66500</v>
+        <v>-69100</v>
       </c>
       <c r="F72" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-64100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-63100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-62200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-61000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-58800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-58500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-58100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-57900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-57200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-56900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-56400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-56000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-54800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-53900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-51200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-48800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-40000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-36800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-34500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-33100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-6900</v>
+        <v>-7900</v>
       </c>
       <c r="E76" s="3">
         <v>-8700</v>
       </c>
       <c r="F76" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="G76" s="3">
         <v>-7300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-500</v>
+        <v>-1400</v>
       </c>
       <c r="E81" s="3">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="F81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-500</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
       </c>
       <c r="Q81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,13 +5813,14 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5648,10 +5847,10 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5684,13 +5883,16 @@
         <v>0</v>
       </c>
       <c r="Y83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-800</v>
       </c>
       <c r="U89" s="3">
         <v>-800</v>
       </c>
       <c r="V89" s="3">
-        <v>-1200</v>
+        <v>-800</v>
       </c>
       <c r="W89" s="3">
         <v>-1200</v>
       </c>
       <c r="X89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6181,8 +6402,8 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -6193,8 +6414,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -6211,14 +6432,14 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
@@ -6229,14 +6450,17 @@
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6443,22 +6673,25 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>-100</v>
       </c>
       <c r="X94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>200</v>
-      </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>700</v>
-      </c>
-      <c r="N100" s="3">
-        <v>300</v>
       </c>
       <c r="O100" s="3">
         <v>300</v>
       </c>
       <c r="P100" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>800</v>
       </c>
       <c r="U100" s="3">
+        <v>800</v>
+      </c>
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,32 +7178,35 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -6977,30 +7229,33 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
-      </c>
-      <c r="V102" s="3">
-        <v>-1000</v>
       </c>
       <c r="W102" s="3">
         <v>-1000</v>
       </c>
       <c r="X102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>SPYR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>200</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -841,36 +845,39 @@
         <v>0</v>
       </c>
       <c r="Y8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="3">
         <v>100</v>
       </c>
       <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -917,8 +924,8 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y9" s="3">
-        <v>100</v>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z9" s="3">
         <v>100</v>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,17 +947,17 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -994,17 +1004,20 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z10" s="3">
         <v>0</v>
       </c>
       <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,16 +1045,17 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -1049,8 +1063,8 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1058,8 +1072,8 @@
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
@@ -1070,47 +1084,50 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
         <v>-100</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
-        <v>100</v>
-      </c>
       <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
         <v>200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>200</v>
       </c>
-      <c r="Y12" s="3">
-        <v>100</v>
-      </c>
       <c r="Z12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="3">
         <v>1200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,17 +1215,17 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1222,11 +1242,11 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1245,11 +1265,11 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1257,14 +1277,17 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
         <v>2500</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1272,7 +1295,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1335,13 +1358,16 @@
         <v>0</v>
       </c>
       <c r="Z15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,85 +1392,89 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1400</v>
       </c>
       <c r="F17" s="3">
         <v>1400</v>
       </c>
       <c r="G17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>500</v>
       </c>
       <c r="R17" s="3">
         <v>500</v>
       </c>
       <c r="S17" s="3">
+        <v>500</v>
+      </c>
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,76 +1482,79 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F18" s="3">
         <v>-1400</v>
       </c>
       <c r="G18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-400</v>
       </c>
       <c r="Q18" s="3">
         <v>-400</v>
       </c>
       <c r="R18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,76 +1592,79 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-5300</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,76 +1672,79 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2900</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-300</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
       </c>
       <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-6900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1765,100 +1805,106 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-500</v>
       </c>
       <c r="Q23" s="3">
         <v>-500</v>
       </c>
       <c r="R23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-6900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-500</v>
       </c>
       <c r="Q26" s="3">
         <v>-500</v>
       </c>
       <c r="R26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-500</v>
       </c>
       <c r="Q27" s="3">
         <v>-500</v>
       </c>
       <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2260,29 +2321,29 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2308,19 +2369,22 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-100</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,153 +2552,159 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>5300</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-500</v>
       </c>
       <c r="Q33" s="3">
         <v>-500</v>
       </c>
       <c r="R33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-500</v>
       </c>
       <c r="Q35" s="3">
         <v>-500</v>
       </c>
       <c r="R35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2930,11 +3017,11 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2942,14 +3029,14 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2975,31 +3062,34 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3009,8 +3099,8 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -3070,13 +3160,16 @@
         <v>0</v>
       </c>
       <c r="Z42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB42" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3086,8 +3179,8 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -3111,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3123,13 +3216,13 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -3144,39 +3237,42 @@
         <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
+      <c r="E44" s="3">
+        <v>100</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -3193,8 +3289,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -3211,8 +3307,8 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
+      <c r="V44" s="3">
+        <v>0</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>4</v>
@@ -3220,8 +3316,8 @@
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y44" s="3">
-        <v>0</v>
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z44" s="3">
         <v>0</v>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3241,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -3256,7 +3355,7 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3292,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3315,26 +3417,26 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -3342,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
@@ -3357,34 +3459,37 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3484,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -3499,7 +3607,7 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -3511,7 +3619,7 @@
         <v>200</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -3526,30 +3634,33 @@
         <v>100</v>
       </c>
       <c r="X48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y48" s="3">
         <v>200</v>
       </c>
       <c r="Z48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA48" s="3">
         <v>400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E49" s="3">
         <v>9600</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3558,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -3588,7 +3699,7 @@
         <v>100</v>
       </c>
       <c r="S49" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="T49" s="3">
         <v>700</v>
@@ -3597,25 +3708,28 @@
         <v>700</v>
       </c>
       <c r="V49" s="3">
+        <v>700</v>
+      </c>
+      <c r="W49" s="3">
         <v>800</v>
-      </c>
-      <c r="W49" s="3">
-        <v>300</v>
       </c>
       <c r="X49" s="3">
         <v>300</v>
       </c>
       <c r="Y49" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Z49" s="3">
         <v>100</v>
       </c>
       <c r="AA49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3840,13 +3960,16 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB52" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,43 +4045,46 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E54" s="3">
         <v>9700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
-        <v>100</v>
-      </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
+        <v>200</v>
+      </c>
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
       </c>
       <c r="M54" s="3">
+        <v>200</v>
+      </c>
+      <c r="N54" s="3">
         <v>300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>400</v>
@@ -3970,37 +4096,40 @@
         <v>400</v>
       </c>
       <c r="R54" s="3">
+        <v>400</v>
+      </c>
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,117 +4187,121 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1200</v>
       </c>
       <c r="P57" s="3">
         <v>1200</v>
       </c>
       <c r="Q57" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="R57" s="3">
         <v>1100</v>
       </c>
       <c r="S57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
-      </c>
-      <c r="X57" s="3">
-        <v>200</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>800</v>
       </c>
       <c r="G58" s="3">
         <v>800</v>
       </c>
       <c r="H58" s="3">
+        <v>800</v>
+      </c>
+      <c r="I58" s="3">
         <v>700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1300</v>
       </c>
       <c r="J58" s="3">
         <v>1300</v>
       </c>
       <c r="K58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1700</v>
       </c>
       <c r="N58" s="3">
         <v>1700</v>
@@ -4179,23 +4313,23 @@
         <v>1700</v>
       </c>
       <c r="Q58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R58" s="3">
         <v>1600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1000</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4232,16 +4369,16 @@
         <v>800</v>
       </c>
       <c r="I59" s="3">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="J59" s="3">
         <v>2000</v>
       </c>
       <c r="K59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L59" s="3">
         <v>1300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1200</v>
       </c>
       <c r="M59" s="3">
         <v>1200</v>
@@ -4253,146 +4390,152 @@
         <v>1200</v>
       </c>
       <c r="P59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2100</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>2000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>200</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
         <v>2000</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E61" s="3">
         <v>11600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2800</v>
       </c>
       <c r="F61" s="3">
         <v>2800</v>
       </c>
       <c r="G61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H61" s="3">
         <v>2500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
-        <v>100</v>
-      </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -4425,11 +4568,11 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>800</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4442,49 +4585,52 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E62" s="3">
         <v>2600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
@@ -4492,8 +4638,8 @@
       <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>100</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -4501,8 +4647,8 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E66" s="3">
         <v>17600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>6700</v>
       </c>
       <c r="I66" s="3">
         <v>6700</v>
       </c>
       <c r="J66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-70500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-66900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-64100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-63100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-62200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-61000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-58800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-58500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-58100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-57900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-57200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-56900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-56400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-56000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-54800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-53900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-51200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-48800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-40000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-36800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-34500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-33100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-7900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-7300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-500</v>
       </c>
       <c r="Q81" s="3">
         <v>-500</v>
       </c>
       <c r="R81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5823,7 +6022,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5850,10 +6049,10 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5886,13 +6085,16 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-800</v>
       </c>
       <c r="V89" s="3">
         <v>-800</v>
       </c>
       <c r="W89" s="3">
-        <v>-1200</v>
+        <v>-800</v>
       </c>
       <c r="X89" s="3">
         <v>-1200</v>
       </c>
       <c r="Y89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6405,8 +6626,8 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6417,8 +6638,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -6435,14 +6656,14 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
@@ -6453,14 +6674,17 @@
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6676,22 +6906,25 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X94" s="3">
         <v>-100</v>
       </c>
       <c r="Y94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,76 +7282,79 @@
         <v>300</v>
       </c>
       <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>700</v>
-      </c>
-      <c r="O100" s="3">
-        <v>300</v>
       </c>
       <c r="P100" s="3">
         <v>300</v>
       </c>
       <c r="Q100" s="3">
+        <v>300</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>800</v>
       </c>
       <c r="V100" s="3">
+        <v>800</v>
+      </c>
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,35 +7430,38 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -7232,30 +7484,33 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
-      </c>
-      <c r="W102" s="3">
-        <v>-1000</v>
       </c>
       <c r="X102" s="3">
         <v>-1000</v>
       </c>
       <c r="Y102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPYR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>SPYR</t>
   </si>
@@ -1226,8 +1226,8 @@
       <c r="H14" s="3">
         <v>-600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -6608,26 +6608,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
